--- a/Schedule Calculator Pro/bin/Debug/Розклад 2 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 2 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD288081-02B1-4AB5-A857-C4227CB302E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C9FE616-7A28-4259-8BD2-E974BD37ADDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1980" windowWidth="21600" windowHeight="11505" xr2:uid="{5E2AEDD4-E7A3-4D8C-B1AB-BBE3C1907194}"/>
+    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{E69744DF-55E5-492F-B401-3BE70EC0F5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="91">
   <si>
     <t>А20</t>
   </si>
@@ -207,34 +207,37 @@
     <t>Основи теплотехніки</t>
   </si>
   <si>
+    <t>Технічне креслення</t>
+  </si>
+  <si>
     <t>П23</t>
   </si>
   <si>
+    <t>Офісне програмне забезпечення</t>
+  </si>
+  <si>
+    <t>Варганова Д.О.</t>
+  </si>
+  <si>
     <t>Математичний аналіз</t>
   </si>
   <si>
     <t>Сербин Г.Л.</t>
   </si>
   <si>
-    <t>Офісне програмне забезпечення</t>
-  </si>
-  <si>
-    <t>Варганова Д.О.</t>
-  </si>
-  <si>
     <t>Лінійна алгебра та аналітична геометрія</t>
   </si>
   <si>
+    <t>Вольська Ю.В.</t>
+  </si>
+  <si>
+    <t>П24</t>
+  </si>
+  <si>
+    <t>Заболотний М.В.</t>
+  </si>
+  <si>
     <t>Шуляр Т.М.</t>
-  </si>
-  <si>
-    <t>Вольська Ю.В.</t>
-  </si>
-  <si>
-    <t>П24</t>
-  </si>
-  <si>
-    <t>Заболотний М.В.</t>
   </si>
   <si>
     <t>С25</t>
@@ -903,7 +906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73B9B75-848F-4DA9-AF6B-3B8EB8BA0705}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC5FB41-8820-44EE-9A90-0281D182EE5E}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -939,7 +942,7 @@
   <sheetData>
     <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -989,7 +992,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -999,12 +1002,12 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="8"/>
@@ -1054,7 +1057,7 @@
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -1111,22 +1114,22 @@
         <v>17</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" s="10">
-        <v>411</v>
+        <v>217</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y3" s="11">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
@@ -1184,10 +1187,10 @@
         <v>311</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G4" s="13">
         <v>106</v>
@@ -1220,19 +1223,19 @@
         <v>409</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="S4" s="13">
         <v>302</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" s="13">
         <v>411</v>
@@ -1425,22 +1428,22 @@
         <v>302</v>
       </c>
       <c r="T6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" s="13">
+        <v>411</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="V6" s="13">
-        <v>200</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="Y6" s="14">
-        <v>308</v>
+        <v>152</v>
       </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
@@ -1495,13 +1498,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="13">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G7" s="13">
         <v>106</v>
@@ -1516,13 +1519,13 @@
         <v>109</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="M7" s="13">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -1614,7 +1617,7 @@
         <v>34</v>
       </c>
       <c r="S8" s="15">
-        <v>111</v>
+        <v>311</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
@@ -1668,7 +1671,7 @@
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>9</v>
@@ -1680,13 +1683,13 @@
         <v>311</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="G9" s="10">
+        <v>106</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>32</v>
@@ -1698,49 +1701,49 @@
         <v>109</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="M9" s="10">
         <v>111</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" s="10">
-        <v>409</v>
+        <v>16</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="S9" s="10">
-        <v>302</v>
+        <v>416</v>
       </c>
       <c r="T9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="V9" s="10">
         <v>411</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y9" s="11">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
@@ -1798,10 +1801,10 @@
         <v>311</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G10" s="13">
         <v>106</v>
@@ -1816,49 +1819,49 @@
         <v>109</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="13">
-        <v>111</v>
+        <v>47</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="N10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="P10" s="13">
         <v>409</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="S10" s="13">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="V10" s="13">
         <v>411</v>
       </c>
-      <c r="W10" s="12" t="s">
-        <v>15</v>
+      <c r="W10" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="X10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y10" s="14" t="s">
-        <v>17</v>
+        <v>81</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>216</v>
       </c>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
@@ -1904,35 +1907,79 @@
       <c r="BO10" s="9"/>
       <c r="BP10" s="9"/>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y11" s="14" t="s">
-        <v>17</v>
+    <row r="11" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="15">
+        <v>311</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="15">
+        <v>218</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="15">
+        <v>109</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="15">
+        <v>111</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="15">
+        <v>409</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S11" s="15">
+        <v>302</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="15">
+        <v>411</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="X11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y11" s="17">
+        <v>314</v>
       </c>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
@@ -1978,79 +2025,81 @@
       <c r="BO11" s="9"/>
       <c r="BP11" s="9"/>
     </row>
-    <row r="12" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="15">
-        <v>311</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="15">
-        <v>106</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="15">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="10">
+        <v>305</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="10">
         <v>109</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="10">
+        <v>209</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="10">
+        <v>409</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="10">
+        <v>411</v>
+      </c>
+      <c r="W12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="X12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="15">
-        <v>111</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" s="15">
-        <v>409</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="S12" s="15">
-        <v>302</v>
-      </c>
-      <c r="T12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="U12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V12" s="15">
-        <v>411</v>
-      </c>
-      <c r="W12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y12" s="17">
-        <v>211</v>
+      <c r="Y12" s="11">
+        <v>216</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -2097,80 +2146,78 @@
       <c r="BP12" s="9"/>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="13">
+        <v>208</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="13">
+        <v>109</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="13">
+        <v>416</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="13">
+        <v>409</v>
+      </c>
+      <c r="Q13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="10">
-        <v>217</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="10">
-        <v>109</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="10">
-        <v>214</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="10">
-        <v>104</v>
-      </c>
-      <c r="Q13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="U13" s="10" t="s">
+      <c r="R13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="13">
+        <v>302</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="V13" s="10">
+      <c r="V13" s="13">
         <v>411</v>
       </c>
-      <c r="W13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="X13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>151</v>
+      <c r="W13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>152</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -2218,78 +2265,34 @@
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="13">
-        <v>106</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="13">
-        <v>109</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="12"/>
       <c r="L14" s="13" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M14" s="13">
-        <v>416</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" s="13">
-        <v>403</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14" s="13">
-        <v>213</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V14" s="13">
-        <v>411</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y14" s="14">
-        <v>409</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="14"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -2336,38 +2339,72 @@
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="13">
+        <v>106</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="I15" s="13" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="J15" s="13">
-        <v>321</v>
-      </c>
-      <c r="K15" s="12"/>
+        <v>109</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="L15" s="13" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M15" s="13">
-        <v>111</v>
-      </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+        <v>405</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="13">
+        <v>409</v>
+      </c>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="14"/>
+      <c r="T15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15" s="13">
+        <v>411</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>209</v>
+      </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -2414,78 +2451,34 @@
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="13">
-        <v>106</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="13" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="J16" s="13">
-        <v>109</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" s="13">
-        <v>403</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="13">
-        <v>409</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="S16" s="13">
-        <v>302</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V16" s="13">
-        <v>411</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="14">
-        <v>209</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="14"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -2542,13 +2535,13 @@
         <v>311</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="15">
-        <v>106</v>
+        <v>16</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>15</v>
@@ -2560,10 +2553,10 @@
         <v>17</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M17" s="15">
         <v>111</v>
@@ -2584,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="Y17" s="17">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -2632,7 +2625,7 @@
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>20</v>
@@ -2641,7 +2634,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="10">
-        <v>416</v>
+        <v>311</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>13</v>
@@ -2662,10 +2655,10 @@
         <v>109</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M18" s="10">
         <v>111</v>
@@ -2680,31 +2673,31 @@
         <v>409</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="S18" s="10">
-        <v>302</v>
+        <v>405</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="V18" s="10">
         <v>411</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y18" s="11">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -2759,7 +2752,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="13">
-        <v>311</v>
+        <v>405</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>36</v>
@@ -2771,10 +2764,10 @@
         <v>106</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J19" s="13">
         <v>109</v>
@@ -2807,22 +2800,22 @@
         <v>302</v>
       </c>
       <c r="T19" s="13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" s="13">
         <v>411</v>
       </c>
       <c r="W19" s="13" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="Y19" s="14">
-        <v>416</v>
+        <v>108</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -2890,7 +2883,7 @@
         <v>34</v>
       </c>
       <c r="S20" s="13">
-        <v>105</v>
+        <v>403</v>
       </c>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -2963,17 +2956,23 @@
         <v>405</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="J21" s="13">
         <v>109</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="K21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="13">
+        <v>106</v>
+      </c>
       <c r="N21" s="13" t="s">
         <v>18</v>
       </c>
@@ -2992,24 +2991,12 @@
       <c r="S21" s="13">
         <v>302</v>
       </c>
-      <c r="T21" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="V21" s="13">
-        <v>411</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y21" s="14">
-        <v>215</v>
-      </c>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="14"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
@@ -3076,7 +3063,7 @@
         <v>34</v>
       </c>
       <c r="S22" s="13">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -3140,13 +3127,13 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="M23" s="15">
+        <v>111</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
@@ -3206,7 +3193,7 @@
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>24</v>
@@ -3215,22 +3202,22 @@
         <v>25</v>
       </c>
       <c r="D24" s="10">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G24" s="10">
-        <v>211</v>
+        <v>322</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J24" s="10">
         <v>109</v>
@@ -3317,24 +3304,12 @@
       <c r="D25" s="13">
         <v>311</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="13">
-        <v>106</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="13">
-        <v>416</v>
-      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="13" t="s">
         <v>13</v>
       </c>
@@ -3357,10 +3332,10 @@
         <v>302</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="U25" s="13" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="V25" s="13">
         <v>411</v>
@@ -3414,34 +3389,78 @@
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="13">
+        <v>106</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="13">
+        <v>211</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="I26" s="13" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="J26" s="13">
-        <v>109</v>
-      </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="14"/>
+        <v>416</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="13">
+        <v>111</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S26" s="13">
+        <v>302</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="V26" s="13">
+        <v>411</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y26" s="14">
+        <v>318</v>
+      </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
@@ -3488,21 +3507,19 @@
     </row>
     <row r="27" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
-      <c r="B27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="15">
-        <v>106</v>
-      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="15">
+        <v>109</v>
+      </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
@@ -3515,15 +3532,9 @@
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-      <c r="W27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="X27" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y27" s="17">
-        <v>318</v>
-      </c>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="17"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
@@ -5156,20 +5167,19 @@
       <c r="BP50" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="W10:W11"/>
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A17"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Q7:Q8"/>
@@ -5178,10 +5188,10 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H26:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schedule Calculator Pro/bin/Debug/Розклад 2 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 2 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C9FE616-7A28-4259-8BD2-E974BD37ADDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{961733E3-9893-4F80-AE9C-14B0C5C9398B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{E69744DF-55E5-492F-B401-3BE70EC0F5A0}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{710F9564-BECB-4509-B656-3FA819DFC5EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -906,7 +906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC5FB41-8820-44EE-9A90-0281D182EE5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BB2B9A-FEC9-40E7-A647-2342F3A82AB8}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1120,7 +1120,7 @@
         <v>71</v>
       </c>
       <c r="V3" s="10">
-        <v>217</v>
+        <v>411</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>80</v>
@@ -1129,7 +1129,7 @@
         <v>81</v>
       </c>
       <c r="Y3" s="11">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="13">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>54</v>
@@ -1416,7 +1416,7 @@
         <v>14</v>
       </c>
       <c r="P6" s="13">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="Q6" s="13" t="s">
         <v>3</v>
@@ -1443,7 +1443,7 @@
         <v>71</v>
       </c>
       <c r="Y6" s="14">
-        <v>152</v>
+        <v>321</v>
       </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
@@ -1498,7 +1498,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="13">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>9</v>
@@ -1525,7 +1525,7 @@
         <v>56</v>
       </c>
       <c r="M7" s="13">
-        <v>111</v>
+        <v>416</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -1617,7 +1617,7 @@
         <v>34</v>
       </c>
       <c r="S8" s="15">
-        <v>311</v>
+        <v>111</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
@@ -1725,7 +1725,7 @@
         <v>63</v>
       </c>
       <c r="S9" s="10">
-        <v>416</v>
+        <v>302</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>74</v>
@@ -1743,7 +1743,7 @@
         <v>71</v>
       </c>
       <c r="Y9" s="11">
-        <v>301</v>
+        <v>153</v>
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
@@ -1861,7 +1861,7 @@
         <v>81</v>
       </c>
       <c r="Y10" s="14">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
@@ -1925,7 +1925,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="15">
-        <v>218</v>
+        <v>416</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>40</v>
@@ -1952,7 +1952,7 @@
         <v>63</v>
       </c>
       <c r="P11" s="15">
-        <v>409</v>
+        <v>322</v>
       </c>
       <c r="Q11" s="15" t="s">
         <v>60</v>
@@ -1979,7 +1979,7 @@
         <v>71</v>
       </c>
       <c r="Y11" s="17">
-        <v>314</v>
+        <v>106</v>
       </c>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
@@ -2036,7 +2036,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="10">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>15</v>
@@ -2063,7 +2063,7 @@
         <v>19</v>
       </c>
       <c r="M12" s="10">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>64</v>
@@ -2072,7 +2072,7 @@
         <v>63</v>
       </c>
       <c r="P12" s="10">
-        <v>409</v>
+        <v>214</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>15</v>
@@ -2099,7 +2099,7 @@
         <v>33</v>
       </c>
       <c r="Y12" s="11">
-        <v>216</v>
+        <v>308</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -2163,7 +2163,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="13">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>3</v>
@@ -2172,7 +2172,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="13">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>20</v>
@@ -2190,7 +2190,7 @@
         <v>23</v>
       </c>
       <c r="P13" s="13">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q13" s="13" t="s">
         <v>13</v>
@@ -2217,7 +2217,7 @@
         <v>84</v>
       </c>
       <c r="Y13" s="14">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -2462,7 +2462,7 @@
         <v>46</v>
       </c>
       <c r="J16" s="13">
-        <v>206</v>
+        <v>717</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -2577,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="Y17" s="17">
-        <v>301</v>
+        <v>717</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -2634,7 +2634,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="10">
-        <v>311</v>
+        <v>416</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>13</v>
@@ -2697,7 +2697,7 @@
         <v>84</v>
       </c>
       <c r="Y18" s="11">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -2761,7 +2761,7 @@
         <v>37</v>
       </c>
       <c r="G19" s="13">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>13</v>
@@ -2815,7 +2815,7 @@
         <v>14</v>
       </c>
       <c r="Y19" s="14">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -2883,7 +2883,7 @@
         <v>34</v>
       </c>
       <c r="S20" s="13">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -2971,7 +2971,7 @@
         <v>27</v>
       </c>
       <c r="M21" s="13">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="N21" s="13" t="s">
         <v>18</v>
@@ -3063,7 +3063,7 @@
         <v>34</v>
       </c>
       <c r="S22" s="13">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -3211,7 +3211,7 @@
         <v>29</v>
       </c>
       <c r="G24" s="10">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>49</v>
@@ -3459,7 +3459,7 @@
         <v>19</v>
       </c>
       <c r="Y26" s="14">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 2 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 2 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{961733E3-9893-4F80-AE9C-14B0C5C9398B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03571692-19E9-4BC5-9342-025ADCFE8DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{710F9564-BECB-4509-B656-3FA819DFC5EA}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{61D30936-C682-4C3C-B125-221C6787AEC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -906,7 +906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BB2B9A-FEC9-40E7-A647-2342F3A82AB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7F93F7-C491-44C2-B0C9-47CD4E399325}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1093,7 +1093,7 @@
         <v>53</v>
       </c>
       <c r="M3" s="10">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>3</v>
@@ -1129,7 +1129,7 @@
         <v>81</v>
       </c>
       <c r="Y3" s="11">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="13">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>54</v>
@@ -1416,7 +1416,7 @@
         <v>14</v>
       </c>
       <c r="P6" s="13">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q6" s="13" t="s">
         <v>3</v>
@@ -1443,7 +1443,7 @@
         <v>71</v>
       </c>
       <c r="Y6" s="14">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
@@ -1525,7 +1525,7 @@
         <v>56</v>
       </c>
       <c r="M7" s="13">
-        <v>416</v>
+        <v>111</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -1617,7 +1617,7 @@
         <v>34</v>
       </c>
       <c r="S8" s="15">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
@@ -1743,7 +1743,7 @@
         <v>71</v>
       </c>
       <c r="Y9" s="11">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
@@ -1861,7 +1861,7 @@
         <v>81</v>
       </c>
       <c r="Y10" s="14">
-        <v>117</v>
+        <v>405</v>
       </c>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
@@ -1952,7 +1952,7 @@
         <v>63</v>
       </c>
       <c r="P11" s="15">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="Q11" s="15" t="s">
         <v>60</v>
@@ -1979,7 +1979,7 @@
         <v>71</v>
       </c>
       <c r="Y11" s="17">
-        <v>106</v>
+        <v>301</v>
       </c>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
@@ -2036,7 +2036,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="10">
-        <v>216</v>
+        <v>303</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>15</v>
@@ -2063,7 +2063,7 @@
         <v>19</v>
       </c>
       <c r="M12" s="10">
-        <v>111</v>
+        <v>314</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>64</v>
@@ -2072,7 +2072,7 @@
         <v>63</v>
       </c>
       <c r="P12" s="10">
-        <v>214</v>
+        <v>409</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>15</v>
@@ -2099,7 +2099,7 @@
         <v>33</v>
       </c>
       <c r="Y12" s="11">
-        <v>308</v>
+        <v>111</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -2163,7 +2163,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="13">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>3</v>
@@ -2172,7 +2172,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="13">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>20</v>
@@ -2181,7 +2181,7 @@
         <v>21</v>
       </c>
       <c r="M13" s="13">
-        <v>416</v>
+        <v>111</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>22</v>
@@ -2217,7 +2217,7 @@
         <v>84</v>
       </c>
       <c r="Y13" s="14">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -2279,7 +2279,7 @@
         <v>50</v>
       </c>
       <c r="M14" s="13">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
@@ -2355,7 +2355,7 @@
         <v>35</v>
       </c>
       <c r="G15" s="13">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>45</v>
@@ -2462,7 +2462,7 @@
         <v>46</v>
       </c>
       <c r="J16" s="13">
-        <v>717</v>
+        <v>151</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -2577,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="Y17" s="17">
-        <v>717</v>
+        <v>209</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -2697,7 +2697,7 @@
         <v>84</v>
       </c>
       <c r="Y18" s="11">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -2752,7 +2752,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="13">
-        <v>405</v>
+        <v>311</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>36</v>
@@ -2761,7 +2761,7 @@
         <v>37</v>
       </c>
       <c r="G19" s="13">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>13</v>
@@ -2815,7 +2815,7 @@
         <v>14</v>
       </c>
       <c r="Y19" s="14">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -2883,7 +2883,7 @@
         <v>34</v>
       </c>
       <c r="S20" s="13">
-        <v>318</v>
+        <v>104</v>
       </c>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -3063,7 +3063,7 @@
         <v>34</v>
       </c>
       <c r="S22" s="13">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -3202,7 +3202,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="10">
-        <v>311</v>
+        <v>104</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>28</v>
@@ -3302,7 +3302,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="13">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -3441,7 +3441,7 @@
         <v>68</v>
       </c>
       <c r="S26" s="13">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="T26" s="13" t="s">
         <v>13</v>
@@ -3459,7 +3459,7 @@
         <v>19</v>
       </c>
       <c r="Y26" s="14">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 2 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 2 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03571692-19E9-4BC5-9342-025ADCFE8DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44C3BFBD-288F-4A26-B326-A178D9808BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{61D30936-C682-4C3C-B125-221C6787AEC7}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{24C3BB39-48ED-44CF-9CF3-BBC9BC8B0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -906,7 +906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7F93F7-C491-44C2-B0C9-47CD4E399325}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8BF296-956A-43E1-8F61-45A51C710A91}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1093,7 +1093,7 @@
         <v>53</v>
       </c>
       <c r="M3" s="10">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>3</v>
@@ -1102,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="10">
-        <v>409</v>
+        <v>112</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>15</v>
@@ -1129,7 +1129,7 @@
         <v>81</v>
       </c>
       <c r="Y3" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
@@ -1229,7 +1229,7 @@
         <v>63</v>
       </c>
       <c r="S4" s="13">
-        <v>302</v>
+        <v>153</v>
       </c>
       <c r="T4" s="13" t="s">
         <v>70</v>
@@ -1443,7 +1443,7 @@
         <v>71</v>
       </c>
       <c r="Y6" s="14">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
@@ -1498,7 +1498,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="13">
-        <v>311</v>
+        <v>111</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>9</v>
@@ -1525,7 +1525,7 @@
         <v>56</v>
       </c>
       <c r="M7" s="13">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -1617,7 +1617,7 @@
         <v>34</v>
       </c>
       <c r="S8" s="15">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
@@ -1861,7 +1861,7 @@
         <v>81</v>
       </c>
       <c r="Y10" s="14">
-        <v>405</v>
+        <v>203</v>
       </c>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
@@ -1925,7 +1925,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="15">
-        <v>416</v>
+        <v>217</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>40</v>
@@ -1979,7 +1979,7 @@
         <v>71</v>
       </c>
       <c r="Y11" s="17">
-        <v>301</v>
+        <v>208</v>
       </c>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
@@ -2036,7 +2036,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="10">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>15</v>
@@ -2063,7 +2063,7 @@
         <v>19</v>
       </c>
       <c r="M12" s="10">
-        <v>314</v>
+        <v>111</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>64</v>
@@ -2099,7 +2099,7 @@
         <v>33</v>
       </c>
       <c r="Y12" s="11">
-        <v>111</v>
+        <v>318</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -2163,7 +2163,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="13">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>3</v>
@@ -2181,7 +2181,7 @@
         <v>21</v>
       </c>
       <c r="M13" s="13">
-        <v>111</v>
+        <v>416</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>22</v>
@@ -2217,7 +2217,7 @@
         <v>84</v>
       </c>
       <c r="Y13" s="14">
-        <v>321</v>
+        <v>219</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -2279,7 +2279,7 @@
         <v>50</v>
       </c>
       <c r="M14" s="13">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
@@ -2355,7 +2355,7 @@
         <v>35</v>
       </c>
       <c r="G15" s="13">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>45</v>
@@ -2462,7 +2462,7 @@
         <v>46</v>
       </c>
       <c r="J16" s="13">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -2577,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="Y17" s="17">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -2697,7 +2697,7 @@
         <v>84</v>
       </c>
       <c r="Y18" s="11">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -2752,7 +2752,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="13">
-        <v>311</v>
+        <v>405</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>36</v>
@@ -2815,7 +2815,7 @@
         <v>14</v>
       </c>
       <c r="Y19" s="14">
-        <v>219</v>
+        <v>317</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -2883,7 +2883,7 @@
         <v>34</v>
       </c>
       <c r="S20" s="13">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -2971,7 +2971,7 @@
         <v>27</v>
       </c>
       <c r="M21" s="13">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="N21" s="13" t="s">
         <v>18</v>
@@ -3063,7 +3063,7 @@
         <v>34</v>
       </c>
       <c r="S22" s="13">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -3302,7 +3302,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="13">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -3441,7 +3441,7 @@
         <v>68</v>
       </c>
       <c r="S26" s="13">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="T26" s="13" t="s">
         <v>13</v>
@@ -3459,7 +3459,7 @@
         <v>19</v>
       </c>
       <c r="Y26" s="14">
-        <v>302</v>
+        <v>717</v>
       </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 2 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 2 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C63338F-C015-40A1-9B8E-CFEA9ADF80BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE408F2E-CA6C-4D97-B16E-5607FDC807B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{6A2605EC-6923-4650-B3B4-351436E6BDE6}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{56998D8B-9C5A-453E-9BCF-919E614C9AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -909,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE9574F-9C73-4203-86FE-471ADB2A3441}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445D66F6-29A4-47F2-993D-B803B2AD8985}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1069,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="12">
-        <v>311</v>
+        <v>208</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>31</v>
@@ -1078,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="12">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>40</v>
@@ -1132,7 +1132,7 @@
         <v>79</v>
       </c>
       <c r="Y3" s="13">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
@@ -1223,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="P4" s="14">
-        <v>409</v>
+        <v>217</v>
       </c>
       <c r="Q4" s="14" t="s">
         <v>11</v>
@@ -1424,7 +1424,7 @@
         <v>60</v>
       </c>
       <c r="S6" s="14">
-        <v>302</v>
+        <v>209</v>
       </c>
       <c r="T6" s="14" t="s">
         <v>71</v>
@@ -1433,7 +1433,7 @@
         <v>72</v>
       </c>
       <c r="V6" s="14">
-        <v>314</v>
+        <v>411</v>
       </c>
       <c r="W6" s="14" t="s">
         <v>80</v>
@@ -1442,7 +1442,7 @@
         <v>70</v>
       </c>
       <c r="Y6" s="16">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
@@ -1548,7 +1548,7 @@
         <v>70</v>
       </c>
       <c r="Y7" s="16">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
@@ -1616,7 +1616,7 @@
         <v>34</v>
       </c>
       <c r="S8" s="17">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
@@ -1742,7 +1742,7 @@
         <v>70</v>
       </c>
       <c r="Y9" s="13">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
@@ -1824,7 +1824,7 @@
         <v>12</v>
       </c>
       <c r="M10" s="14">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>61</v>
@@ -1851,7 +1851,7 @@
         <v>72</v>
       </c>
       <c r="V10" s="14">
-        <v>411</v>
+        <v>111</v>
       </c>
       <c r="W10" s="15" t="s">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="14">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>32</v>
@@ -2025,7 +2025,7 @@
         <v>60</v>
       </c>
       <c r="P12" s="14">
-        <v>112</v>
+        <v>409</v>
       </c>
       <c r="Q12" s="14" t="s">
         <v>61</v>
@@ -2052,7 +2052,7 @@
         <v>79</v>
       </c>
       <c r="Y12" s="16">
-        <v>154</v>
+        <v>322</v>
       </c>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
@@ -2183,7 +2183,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="12">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>18</v>
@@ -2201,7 +2201,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="12">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>20</v>
@@ -2210,7 +2210,7 @@
         <v>21</v>
       </c>
       <c r="M14" s="12">
-        <v>111</v>
+        <v>416</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>22</v>
@@ -2246,7 +2246,7 @@
         <v>82</v>
       </c>
       <c r="Y14" s="13">
-        <v>302</v>
+        <v>209</v>
       </c>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
@@ -2308,7 +2308,7 @@
         <v>50</v>
       </c>
       <c r="M15" s="14">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -2384,7 +2384,7 @@
         <v>21</v>
       </c>
       <c r="G16" s="14">
-        <v>106</v>
+        <v>416</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>5</v>
@@ -2402,7 +2402,7 @@
         <v>19</v>
       </c>
       <c r="M16" s="14">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="N16" s="14" t="s">
         <v>20</v>
@@ -2429,7 +2429,7 @@
         <v>75</v>
       </c>
       <c r="V16" s="14">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>32</v>
@@ -2438,7 +2438,7 @@
         <v>33</v>
       </c>
       <c r="Y16" s="16">
-        <v>416</v>
+        <v>104</v>
       </c>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
@@ -2520,7 +2520,7 @@
         <v>23</v>
       </c>
       <c r="M17" s="14">
-        <v>405</v>
+        <v>214</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>1</v>
@@ -2550,7 +2550,7 @@
         <v>14</v>
       </c>
       <c r="Y17" s="16">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
@@ -2609,7 +2609,7 @@
         <v>46</v>
       </c>
       <c r="J18" s="14">
-        <v>303</v>
+        <v>410</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -2724,7 +2724,7 @@
         <v>2</v>
       </c>
       <c r="Y19" s="19">
-        <v>213</v>
+        <v>413</v>
       </c>
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
@@ -2832,7 +2832,7 @@
         <v>82</v>
       </c>
       <c r="Y20" s="13">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
@@ -2896,7 +2896,7 @@
         <v>37</v>
       </c>
       <c r="G21" s="14">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>49</v>
@@ -2944,7 +2944,7 @@
         <v>21</v>
       </c>
       <c r="Y21" s="16">
-        <v>206</v>
+        <v>321</v>
       </c>
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
@@ -3012,7 +3012,7 @@
         <v>34</v>
       </c>
       <c r="S22" s="14">
-        <v>209</v>
+        <v>717</v>
       </c>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
@@ -3192,7 +3192,7 @@
         <v>34</v>
       </c>
       <c r="S24" s="14">
-        <v>717</v>
+        <v>105</v>
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
@@ -3576,7 +3576,7 @@
         <v>19</v>
       </c>
       <c r="Y28" s="16">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 2 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 2 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF861726-F57E-48D7-9525-54A5603F6EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE2EEE2-AE7D-491B-84D9-48A1C00C778B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{1D0956E7-7DA0-4FEA-ABA3-6CF6B0BA70A5}"/>
+    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{B78C7C7F-DB79-4AA7-9559-11972E2F44BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>А20</t>
   </si>
@@ -66,6 +66,12 @@
     <t>Антонова Л.І.</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Історія: Україна і світ</t>
+  </si>
+  <si>
     <t>Математика</t>
   </si>
   <si>
@@ -87,100 +93,103 @@
     <t>Римар Т.В.</t>
   </si>
   <si>
-    <t>Історія: Україна і світ</t>
+    <t>Іноземна мова</t>
+  </si>
+  <si>
+    <t>Семенюк Л.М.</t>
+  </si>
+  <si>
+    <t>Біологія і екологія</t>
+  </si>
+  <si>
+    <t>Ставничий А.М.</t>
+  </si>
+  <si>
+    <t>Основи програмування та програмне забезпечення</t>
+  </si>
+  <si>
+    <t>Фуріхата Д.В.</t>
+  </si>
+  <si>
+    <t>Нарисна геометрія та інженерна графіка</t>
+  </si>
+  <si>
+    <t>Шевчик О.А.</t>
+  </si>
+  <si>
+    <t>Технологічні процеси, обл. та обє. вироб.</t>
+  </si>
+  <si>
+    <t>Шурпан М.М.</t>
+  </si>
+  <si>
+    <t>Ел21</t>
+  </si>
+  <si>
+    <t>Теоретичні основи електротехніки</t>
+  </si>
+  <si>
+    <t>413/</t>
+  </si>
+  <si>
+    <t>Українська мова</t>
+  </si>
+  <si>
+    <t>Бондаренко О.П.</t>
+  </si>
+  <si>
+    <t>Кочин І.В.</t>
+  </si>
+  <si>
+    <t>Сорочиньска О.В.</t>
+  </si>
+  <si>
+    <t>Основи проектування та конст. ел. устан.</t>
+  </si>
+  <si>
+    <t>Хливнюк М.Г.</t>
+  </si>
+  <si>
+    <t>Інженерна графіка</t>
+  </si>
+  <si>
+    <t>К27</t>
+  </si>
+  <si>
+    <t>Комп'ютерна схемотехніка</t>
+  </si>
+  <si>
+    <t>Максименко М.О.</t>
+  </si>
+  <si>
+    <t>Фізика (електрика)</t>
+  </si>
+  <si>
+    <t>Матеріали та елементна база електронних апаратів</t>
+  </si>
+  <si>
+    <t>Білоконь С.Ф.</t>
   </si>
   <si>
     <t>Міщенко В.А.</t>
   </si>
   <si>
-    <t>Іноземна мова</t>
-  </si>
-  <si>
-    <t>Семенюк Л.М.</t>
-  </si>
-  <si>
-    <t>Біологія і екологія</t>
-  </si>
-  <si>
-    <t>Ставничий А.М.</t>
-  </si>
-  <si>
-    <t>Основи програмування та програмне забезпечення</t>
-  </si>
-  <si>
-    <t>Фуріхата Д.В.</t>
-  </si>
-  <si>
-    <t>Нарисна геометрія та інженерна графіка</t>
-  </si>
-  <si>
-    <t>Шевчик О.А.</t>
-  </si>
-  <si>
-    <t>Ел21</t>
-  </si>
-  <si>
-    <t>Теоретичні основи електротехніки</t>
-  </si>
-  <si>
-    <t>Українська мова</t>
-  </si>
-  <si>
-    <t>Бондаренко О.П.</t>
-  </si>
-  <si>
-    <t>Кочин І.В.</t>
-  </si>
-  <si>
-    <t>Сорочиньска О.В.</t>
-  </si>
-  <si>
-    <t>Основи проектування та конст. ел. устан.</t>
-  </si>
-  <si>
-    <t>Хливнюк М.Г.</t>
-  </si>
-  <si>
-    <t>Інженерна графіка</t>
-  </si>
-  <si>
-    <t>Технологічні процеси, обл. та обє. вироб.</t>
-  </si>
-  <si>
-    <t>Шурпан М.М.</t>
-  </si>
-  <si>
-    <t>К27</t>
-  </si>
-  <si>
-    <t>Комп'ютерна схемотехніка</t>
-  </si>
-  <si>
-    <t>Максименко М.О.</t>
-  </si>
-  <si>
-    <t>Фізика (електрика)</t>
-  </si>
-  <si>
-    <t>Матеріали та елементна база електронних апаратів</t>
-  </si>
-  <si>
-    <t>Білоконь С.Ф.</t>
+    <t>Подлєсна К.А.</t>
   </si>
   <si>
     <t>Периферійні пристрої</t>
   </si>
   <si>
+    <t>Архітектура комп'ютерів</t>
+  </si>
+  <si>
     <t>Романішин В.В.</t>
   </si>
   <si>
     <t>Опанащук Ю.М.</t>
   </si>
   <si>
-    <t>Подлєсна К.А.</t>
-  </si>
-  <si>
-    <t>Архітектура комп'ютерів</t>
+    <t>Халіф О.Р.</t>
   </si>
   <si>
     <t>Лг22</t>
@@ -199,9 +208,6 @@
   </si>
   <si>
     <t>Ковтонок Л.М.</t>
-  </si>
-  <si>
-    <t>Халіф О.Р.</t>
   </si>
   <si>
     <t>Основи теплотехніки</t>
@@ -572,11 +578,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -906,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA9E5E4-89B4-47B9-8715-B3AE1BEA4A5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7ED56BB-7DDF-471D-95E1-408B787F9DD0}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -919,7 +925,7 @@
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
@@ -927,7 +933,7 @@
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
@@ -942,7 +948,7 @@
   <sheetData>
     <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -977,37 +983,37 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="8"/>
@@ -1057,7 +1063,7 @@
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -1069,67 +1075,67 @@
         <v>311</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="10">
-        <v>310</v>
+      <c r="G3" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3" s="10">
         <v>109</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M3" s="10">
         <v>111</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="P3" s="10">
-        <v>409</v>
+        <v>154</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V3" s="10">
-        <v>123</v>
+        <v>411</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y3" s="11">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
@@ -1187,10 +1193,10 @@
         <v>311</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G4" s="12">
         <v>106</v>
@@ -1205,49 +1211,49 @@
         <v>109</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M4" s="12">
         <v>111</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P4" s="12">
         <v>409</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="S4" s="12">
-        <v>203</v>
+        <v>317</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V4" s="12">
         <v>411</v>
       </c>
-      <c r="W4" s="13" t="s">
-        <v>13</v>
+      <c r="W4" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>201</v>
       </c>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
@@ -1295,33 +1301,77 @@
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="13"/>
+      <c r="B5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12">
+        <v>311</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="12">
+        <v>106</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="12">
+        <v>109</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="12">
+        <v>111</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="12">
+        <v>409</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="12">
+        <v>302</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" s="12">
+        <v>413</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="X5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y5" s="14" t="s">
-        <v>15</v>
+        <v>73</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>217</v>
       </c>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
@@ -1370,16 +1420,16 @@
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" s="12">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>4</v>
@@ -1388,58 +1438,46 @@
         <v>106</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="12">
+        <v>109</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="12">
+        <v>403</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="12">
-        <v>111</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="12">
-        <v>409</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="S6" s="12">
-        <v>302</v>
-      </c>
-      <c r="T6" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="X6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="V6" s="12">
-        <v>209</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y6" s="14">
-        <v>104</v>
+      <c r="Y6" s="13">
+        <v>412</v>
       </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
@@ -1485,68 +1523,36 @@
       <c r="BO6" s="9"/>
       <c r="BP6" s="9"/>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="12">
+    <row r="7" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="15">
         <v>311</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="12">
-        <v>211</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="12">
-        <v>109</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" s="12">
-        <v>209</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="S7" s="12">
-        <v>302</v>
-      </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y7" s="14">
-        <v>202</v>
-      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="17"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
@@ -1591,36 +1597,82 @@
       <c r="BO7" s="9"/>
       <c r="BP7" s="9"/>
     </row>
-    <row r="8" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="15">
-        <v>108</v>
-      </c>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="17"/>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10">
+        <v>311</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="10">
+        <v>109</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="10">
+        <v>416</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="10">
+        <v>409</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="10">
+        <v>209</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="10">
+        <v>411</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>206</v>
+      </c>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
@@ -1666,80 +1718,78 @@
       <c r="BP8" s="9"/>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="A9" s="4"/>
+      <c r="B9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12">
         <v>311</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="E9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="12">
+        <v>206</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="12">
+        <v>109</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="12">
+        <v>111</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="12">
+        <v>409</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S9" s="12">
+        <v>302</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V9" s="12">
+        <v>411</v>
+      </c>
+      <c r="W9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="10">
-        <v>109</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="10">
-        <v>111</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="10">
-        <v>409</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="10">
-        <v>302</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="V9" s="10">
-        <v>411</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>322</v>
+      <c r="X9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y9" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
@@ -1787,77 +1837,33 @@
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="12">
-        <v>311</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="12">
-        <v>106</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="12">
-        <v>109</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="12">
-        <v>218</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="12">
-        <v>409</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10" s="12">
-        <v>117</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="V10" s="12">
-        <v>411</v>
-      </c>
-      <c r="W10" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="14"/>
       <c r="X10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y10" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
@@ -1905,33 +1911,77 @@
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="13"/>
+      <c r="B11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="12">
+        <v>109</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="12">
+        <v>111</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="12">
+        <v>409</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="12">
+        <v>302</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" s="12">
+        <v>411</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="X11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Y11" s="14" t="s">
-        <v>15</v>
+      <c r="Y11" s="13">
+        <v>203</v>
       </c>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
@@ -1980,7 +2030,7 @@
     <row r="12" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>10</v>
@@ -1988,69 +2038,27 @@
       <c r="D12" s="15">
         <v>311</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="15">
-        <v>109</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="15">
-        <v>111</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="15">
-        <v>409</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="S12" s="15">
-        <v>302</v>
-      </c>
-      <c r="T12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="U12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="V12" s="15">
-        <v>411</v>
-      </c>
-      <c r="W12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y12" s="17">
-        <v>416</v>
-      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="17"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -2097,31 +2105,31 @@
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="10">
-        <v>416</v>
+        <v>211</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G13" s="10">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J13" s="10">
         <v>109</v>
@@ -2133,43 +2141,43 @@
         <v>21</v>
       </c>
       <c r="M13" s="10">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="10">
-        <v>409</v>
+        <v>16</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="S13" s="10">
+        <v>302</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="V13" s="10">
         <v>411</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="Y13" s="11">
-        <v>204</v>
+        <v>405</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -2226,12 +2234,12 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M14" s="12">
-        <v>105</v>
+        <v>321</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -2244,7 +2252,7 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
-      <c r="Y14" s="14"/>
+      <c r="Y14" s="13"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -2292,13 +2300,13 @@
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>20</v>
@@ -2310,19 +2318,19 @@
         <v>416</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J15" s="12">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M15" s="12">
         <v>111</v>
@@ -2331,37 +2339,31 @@
         <v>20</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P15" s="12">
-        <v>409</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="S15" s="12">
-        <v>302</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
       <c r="T15" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V15" s="12">
         <v>411</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y15" s="14">
-        <v>109</v>
+        <v>34</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>211</v>
       </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -2410,25 +2412,25 @@
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="F16" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G16" s="12">
-        <v>106</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>45</v>
+        <v>219</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>6</v>
@@ -2437,10 +2439,10 @@
         <v>109</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M16" s="12">
         <v>111</v>
@@ -2454,26 +2456,32 @@
       <c r="P16" s="12">
         <v>409</v>
       </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
+      <c r="Q16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="12">
+        <v>405</v>
+      </c>
       <c r="T16" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V16" s="12">
         <v>411</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="X16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y16" s="14">
-        <v>304</v>
+        <v>19</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>314</v>
       </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -2521,22 +2529,42 @@
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
+      <c r="B17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="12">
+        <v>409</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="12">
+        <v>106</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="I17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="12">
-        <v>105</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -2546,9 +2574,15 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="14"/>
+      <c r="W17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>311</v>
+      </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -2595,42 +2629,24 @@
     </row>
     <row r="18" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="15">
-        <v>311</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="15">
-        <v>106</v>
-      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="15" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="15">
-        <v>111</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J18" s="15">
+        <v>109</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
@@ -2640,15 +2656,9 @@
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
-      <c r="W18" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="X18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="17">
-        <v>122</v>
-      </c>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="17"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
@@ -2695,67 +2705,79 @@
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>18</v>
+        <v>90</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="10">
+        <v>416</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="10">
-        <v>311</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="G19" s="10">
-        <v>405</v>
+        <v>106</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J19" s="10">
         <v>109</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M19" s="10">
         <v>111</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="P19" s="10">
         <v>409</v>
       </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
+      <c r="Q19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="10">
+        <v>302</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19" s="10">
+        <v>411</v>
+      </c>
       <c r="W19" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y19" s="11">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -2803,13 +2825,9 @@
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="12">
-        <v>209</v>
-      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -2822,15 +2840,19 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="12">
+        <v>206</v>
+      </c>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
-      <c r="Y20" s="14"/>
+      <c r="Y20" s="13"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
@@ -2877,53 +2899,53 @@
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="12">
+        <v>405</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="12">
+        <v>106</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="12">
+        <v>111</v>
+      </c>
+      <c r="N21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="12">
-        <v>311</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="12">
-        <v>206</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="12">
-        <v>109</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="O21" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P21" s="12">
         <v>409</v>
       </c>
-      <c r="Q21" s="13" t="s">
-        <v>42</v>
+      <c r="Q21" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="R21" s="12" t="s">
         <v>2</v>
@@ -2934,9 +2956,15 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="14"/>
+      <c r="W21" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="X21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>317</v>
+      </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
@@ -2983,13 +3011,9 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="12">
-        <v>209</v>
-      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -3002,19 +3026,19 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="13"/>
+      <c r="Q22" s="14"/>
       <c r="R22" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S22" s="12">
-        <v>412</v>
+        <v>322</v>
       </c>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
-      <c r="Y22" s="14"/>
+      <c r="Y22" s="13"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
@@ -3062,65 +3086,71 @@
     <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D23" s="12">
-        <v>416</v>
+        <v>104</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G23" s="12">
-        <v>106</v>
+        <v>405</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J23" s="12">
         <v>109</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="M23" s="12">
+        <v>111</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="P23" s="12">
         <v>409</v>
       </c>
-      <c r="Q23" s="13" t="s">
-        <v>42</v>
+      <c r="Q23" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="S23" s="12">
         <v>302</v>
       </c>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
+      <c r="T23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V23" s="12">
+        <v>411</v>
+      </c>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
-      <c r="Y23" s="14"/>
+      <c r="Y23" s="13"/>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
@@ -3165,36 +3195,44 @@
       <c r="BO23" s="9"/>
       <c r="BP23" s="9"/>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S24" s="12">
-        <v>318</v>
-      </c>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="14"/>
+    <row r="24" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="15">
+        <v>104</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="17"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
@@ -3239,44 +3277,58 @@
       <c r="BO24" s="9"/>
       <c r="BP24" s="9"/>
     </row>
-    <row r="25" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="15">
-        <v>405</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="15" t="s">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="15">
-        <v>111</v>
-      </c>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="17"/>
+      <c r="D25" s="10">
+        <v>211</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="10">
+        <v>304</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="10">
+        <v>109</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S25" s="10">
+        <v>302</v>
+      </c>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="11"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
@@ -3322,69 +3374,61 @@
       <c r="BP25" s="9"/>
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="10">
-        <v>104</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="10" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="12">
+        <v>106</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="12">
         <v>211</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="10" t="s">
+      <c r="H26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="12">
+        <v>416</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="S26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="10">
-        <v>109</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M26" s="10">
-        <v>111</v>
-      </c>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="S26" s="10">
-        <v>302</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="V26" s="10">
+      <c r="T26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V26" s="12">
         <v>411</v>
       </c>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="11"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="13"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
@@ -3431,60 +3475,34 @@
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="12">
-        <v>104</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="12">
-        <v>106</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" s="12">
-        <v>111</v>
-      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="12">
+        <v>109</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
-      <c r="Q27" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="R27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="S27" s="12">
-        <v>302</v>
-      </c>
-      <c r="T27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="U27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V27" s="12">
-        <v>411</v>
-      </c>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
-      <c r="Y27" s="14"/>
+      <c r="Y27" s="13"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
@@ -3531,54 +3549,48 @@
     </row>
     <row r="28" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="15">
-        <v>311</v>
-      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="15">
-        <v>405</v>
-      </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="15">
+        <v>111</v>
+      </c>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S28" s="15">
         <v>302</v>
       </c>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="X28" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y28" s="17">
-        <v>219</v>
-      </c>
+      <c r="T28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="V28" s="15">
+        <v>411</v>
+      </c>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="17"/>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
@@ -5142,30 +5154,27 @@
       <c r="BP50" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="Q23:Q24"/>
+  <mergeCells count="20">
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H26:H27"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K13:K14"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 2 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 2 курс.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE2EEE2-AE7D-491B-84D9-48A1C00C778B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2E6CE4B-0703-4704-9D0E-2825C8312BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{B78C7C7F-DB79-4AA7-9559-11972E2F44BF}"/>
+    <workbookView xWindow="14805" yWindow="1095" windowWidth="13995" windowHeight="11505" xr2:uid="{6AD2D083-D32A-4A1D-B812-D6D99FBF69A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="88">
   <si>
     <t>А20</t>
   </si>
@@ -66,33 +60,36 @@
     <t>Антонова Л.І.</t>
   </si>
   <si>
+    <t>Історія: Україна і світ</t>
+  </si>
+  <si>
+    <t>Міщенко В.А.</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Петрова А.А.</t>
+  </si>
+  <si>
+    <t>Фізична культура</t>
+  </si>
+  <si>
+    <t>Пузіна О.С.</t>
+  </si>
+  <si>
+    <t>с.з.</t>
+  </si>
+  <si>
+    <t>Українська література</t>
+  </si>
+  <si>
+    <t>Римар Т.В.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Історія: Україна і світ</t>
-  </si>
-  <si>
-    <t>Математика</t>
-  </si>
-  <si>
-    <t>Петрова А.А.</t>
-  </si>
-  <si>
-    <t>Фізична культура</t>
-  </si>
-  <si>
-    <t>Пузіна О.С.</t>
-  </si>
-  <si>
-    <t>с.з.</t>
-  </si>
-  <si>
-    <t>Українська література</t>
-  </si>
-  <si>
-    <t>Римар Т.В.</t>
-  </si>
-  <si>
     <t>Іноземна мова</t>
   </si>
   <si>
@@ -129,27 +126,18 @@
     <t>Теоретичні основи електротехніки</t>
   </si>
   <si>
-    <t>413/</t>
-  </si>
-  <si>
     <t>Українська мова</t>
   </si>
   <si>
     <t>Бондаренко О.П.</t>
   </si>
   <si>
+    <t>Сорочиньска О.В.</t>
+  </si>
+  <si>
     <t>Кочин І.В.</t>
   </si>
   <si>
-    <t>Сорочиньска О.В.</t>
-  </si>
-  <si>
-    <t>Основи проектування та конст. ел. устан.</t>
-  </si>
-  <si>
-    <t>Хливнюк М.Г.</t>
-  </si>
-  <si>
     <t>Інженерна графіка</t>
   </si>
   <si>
@@ -171,9 +159,6 @@
     <t>Білоконь С.Ф.</t>
   </si>
   <si>
-    <t>Міщенко В.А.</t>
-  </si>
-  <si>
     <t>Подлєсна К.А.</t>
   </si>
   <si>
@@ -210,12 +195,6 @@
     <t>Ковтонок Л.М.</t>
   </si>
   <si>
-    <t>Основи теплотехніки</t>
-  </si>
-  <si>
-    <t>Технічне креслення</t>
-  </si>
-  <si>
     <t>П23</t>
   </si>
   <si>
@@ -234,16 +213,19 @@
     <t>Лінійна алгебра та аналітична геометрія</t>
   </si>
   <si>
+    <t>Вольська Ю.В.</t>
+  </si>
+  <si>
     <t>Шуляр Т.М.</t>
   </si>
   <si>
-    <t>Вольська Ю.В.</t>
-  </si>
-  <si>
     <t>П24</t>
   </si>
   <si>
     <t>Заболотний М.В.</t>
+  </si>
+  <si>
+    <t>311/</t>
   </si>
   <si>
     <t>С25</t>
@@ -912,7 +894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7ED56BB-7DDF-471D-95E1-408B787F9DD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B5AF41-2255-4683-9092-057B12B89AC2}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -925,7 +907,7 @@
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
@@ -933,11 +915,11 @@
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
@@ -948,7 +930,7 @@
   <sheetData>
     <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -983,37 +965,37 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="8"/>
@@ -1063,7 +1045,7 @@
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -1075,67 +1057,67 @@
         <v>311</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>32</v>
+      <c r="G3" s="10">
+        <v>106</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J3" s="10">
         <v>109</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M3" s="10">
         <v>111</v>
       </c>
       <c r="N3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="P3" s="10">
-        <v>154</v>
+        <v>314</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="S3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V3" s="10">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y3" s="11">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
@@ -1211,10 +1193,10 @@
         <v>109</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M4" s="12">
         <v>111</v>
@@ -1229,31 +1211,31 @@
         <v>409</v>
       </c>
       <c r="Q4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="S4" s="12">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V4" s="12">
         <v>411</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y4" s="13">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
@@ -1320,7 +1302,7 @@
         <v>106</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>2</v>
@@ -1329,10 +1311,10 @@
         <v>109</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M5" s="12">
         <v>111</v>
@@ -1347,31 +1329,31 @@
         <v>409</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="S5" s="12">
         <v>302</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V5" s="12">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Y5" s="13">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
@@ -1426,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="12">
-        <v>203</v>
+        <v>311</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>4</v>
@@ -1438,10 +1420,10 @@
         <v>106</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J6" s="12">
         <v>109</v>
@@ -1453,7 +1435,7 @@
         <v>6</v>
       </c>
       <c r="M6" s="12">
-        <v>403</v>
+        <v>111</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -1465,19 +1447,19 @@
         <v>2</v>
       </c>
       <c r="S6" s="12">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Y6" s="13">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
@@ -1542,10 +1524,10 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S7" s="15">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
@@ -1599,7 +1581,7 @@
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>9</v>
@@ -1629,19 +1611,19 @@
         <v>109</v>
       </c>
       <c r="K8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="10">
+        <v>151</v>
+      </c>
+      <c r="N8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="O8" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="M8" s="10">
-        <v>416</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="P8" s="10">
         <v>409</v>
@@ -1650,10 +1632,10 @@
         <v>13</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S8" s="10">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="T8" s="10" t="s">
         <v>5</v>
@@ -1665,13 +1647,13 @@
         <v>411</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Y8" s="11">
-        <v>206</v>
+        <v>304</v>
       </c>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
@@ -1729,19 +1711,19 @@
         <v>311</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="12">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="J9" s="12">
         <v>109</v>
@@ -1756,28 +1738,28 @@
         <v>111</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P9" s="12">
         <v>409</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="S9" s="12">
         <v>302</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V9" s="12">
         <v>411</v>
@@ -1786,7 +1768,7 @@
         <v>15</v>
       </c>
       <c r="X9" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Y9" s="13" t="s">
         <v>17</v>
@@ -1911,68 +1893,68 @@
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D11" s="12">
+        <v>311</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="G11" s="12">
+        <v>106</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J11" s="12">
         <v>109</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="12">
-        <v>111</v>
+        <v>48</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P11" s="12">
         <v>409</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="S11" s="12">
         <v>302</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V11" s="12">
-        <v>411</v>
+        <v>218</v>
       </c>
       <c r="W11" s="12" t="s">
         <v>13</v>
@@ -1981,7 +1963,7 @@
         <v>14</v>
       </c>
       <c r="Y11" s="13">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
@@ -2029,14 +2011,12 @@
     </row>
     <row r="12" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>10</v>
-      </c>
       <c r="D12" s="15">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -2105,7 +2085,7 @@
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>13</v>
@@ -2114,49 +2094,49 @@
         <v>14</v>
       </c>
       <c r="D13" s="10">
-        <v>211</v>
+        <v>717</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="10">
-        <v>106</v>
+        <v>16</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="J13" s="10">
         <v>109</v>
       </c>
-      <c r="K13" s="18" t="s">
-        <v>20</v>
+      <c r="K13" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M13" s="10">
         <v>111</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="P13" s="10">
+        <v>405</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="S13" s="10">
         <v>302</v>
@@ -2171,13 +2151,13 @@
         <v>411</v>
       </c>
       <c r="W13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="X13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X13" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="Y13" s="11">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -2225,34 +2205,72 @@
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="14"/>
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="12">
+        <v>106</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="12">
+        <v>109</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="L14" s="12" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="M14" s="12">
-        <v>321</v>
+        <v>111</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="13"/>
+      <c r="Q14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="12">
+        <v>302</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" s="12">
+        <v>411</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>409</v>
+      </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -2299,72 +2317,34 @@
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="12">
-        <v>416</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="12">
-        <v>123</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="12" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M15" s="12">
-        <v>111</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="P15" s="12">
         <v>219</v>
       </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
-      <c r="T15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="V15" s="12">
-        <v>411</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y15" s="13">
-        <v>211</v>
-      </c>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="13"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -2421,28 +2401,28 @@
         <v>17</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="12">
+        <v>106</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="12">
-        <v>219</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>5</v>
-      </c>
       <c r="I16" s="12" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="J16" s="12">
-        <v>109</v>
+        <v>322</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="M16" s="12">
         <v>111</v>
@@ -2457,31 +2437,31 @@
         <v>409</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S16" s="12">
         <v>405</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V16" s="12">
         <v>411</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="X16" s="12" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Y16" s="13">
-        <v>314</v>
+        <v>203</v>
       </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -2536,34 +2516,34 @@
         <v>19</v>
       </c>
       <c r="D17" s="12">
-        <v>409</v>
+        <v>209</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="12">
         <v>106</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="M17" s="12">
+        <v>111</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -2581,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="Y17" s="13">
-        <v>311</v>
+        <v>210</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -2636,7 +2616,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>6</v>
@@ -2705,31 +2685,31 @@
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="10">
-        <v>416</v>
+        <v>20</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G19" s="10">
-        <v>106</v>
+        <v>405</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J19" s="10">
         <v>109</v>
@@ -2738,7 +2718,7 @@
         <v>13</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="10">
         <v>111</v>
@@ -2747,13 +2727,13 @@
         <v>33</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P19" s="10">
         <v>409</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R19" s="10" t="s">
         <v>2</v>
@@ -2761,23 +2741,17 @@
       <c r="S19" s="10">
         <v>302</v>
       </c>
-      <c r="T19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="V19" s="10">
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y19" s="11">
         <v>411</v>
-      </c>
-      <c r="W19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X19" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y19" s="11">
-        <v>213</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -2825,9 +2799,15 @@
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="12">
+        <v>311</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -2842,10 +2822,10 @@
       <c r="P20" s="12"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S20" s="12">
-        <v>206</v>
+        <v>36</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
@@ -2900,19 +2880,19 @@
     <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="D21" s="12">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G21" s="12">
         <v>106</v>
@@ -2921,16 +2901,16 @@
         <v>15</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>17</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M21" s="12">
         <v>111</v>
@@ -2939,13 +2919,13 @@
         <v>18</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P21" s="12">
         <v>409</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R21" s="12" t="s">
         <v>2</v>
@@ -2953,18 +2933,18 @@
       <c r="S21" s="12">
         <v>302</v>
       </c>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="X21" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y21" s="13">
-        <v>317</v>
-      </c>
+      <c r="T21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V21" s="12">
+        <v>411</v>
+      </c>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="13"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
@@ -3028,10 +3008,10 @@
       <c r="P22" s="12"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S22" s="12">
-        <v>322</v>
+        <v>214</v>
       </c>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
@@ -3086,41 +3066,35 @@
     <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="D23" s="12">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G23" s="12">
-        <v>405</v>
+        <v>211</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>13</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J23" s="12">
         <v>109</v>
       </c>
-      <c r="K23" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="12">
-        <v>111</v>
-      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
       <c r="N23" s="12" t="s">
         <v>1</v>
       </c>
@@ -3134,7 +3108,7 @@
         <v>33</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S23" s="12">
         <v>302</v>
@@ -3143,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V23" s="12">
         <v>411</v>
@@ -3198,10 +3172,10 @@
     <row r="24" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" s="15">
         <v>104</v>
@@ -3216,7 +3190,7 @@
         <v>15</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M24" s="15" t="s">
         <v>17</v>
@@ -3279,25 +3253,25 @@
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="D25" s="10">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" s="10">
-        <v>304</v>
+        <v>106</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>18</v>
@@ -3318,7 +3292,7 @@
         <v>18</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S25" s="10">
         <v>302</v>
@@ -3376,32 +3350,20 @@
     <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="D26" s="12">
-        <v>106</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="12">
-        <v>211</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="12">
-        <v>416</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
@@ -3412,20 +3374,14 @@
         <v>15</v>
       </c>
       <c r="R26" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="S26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="V26" s="12">
-        <v>411</v>
-      </c>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="13"/>
@@ -3475,34 +3431,60 @@
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="12">
+        <v>106</v>
+      </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="14"/>
+      <c r="H27" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="I27" s="12" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="J27" s="12">
-        <v>109</v>
+        <v>416</v>
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
+      <c r="N27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="12">
+        <v>409</v>
+      </c>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="13"/>
+      <c r="T27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V27" s="12">
+        <v>411</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y27" s="13">
+        <v>318</v>
+      </c>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
@@ -3555,39 +3537,25 @@
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="15">
-        <v>111</v>
-      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="15">
+        <v>109</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
-      <c r="Q28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="R28" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="S28" s="15">
-        <v>302</v>
-      </c>
-      <c r="T28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="U28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="V28" s="15">
-        <v>411</v>
-      </c>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
       <c r="Y28" s="17"/>
@@ -5154,7 +5122,7 @@
       <c r="BP50" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="W2:Y2"/>
@@ -5170,11 +5138,12 @@
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H27:H28"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K14:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
